--- a/data/Bioregions/prep_dis10areas.xlsx
+++ b/data/Bioregions/prep_dis10areas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/799e103cf1ed2d46/Pesquisa/2021_ArtigoQ1 2 Platyrhinni-Asus/Platy_paper/data/Bioregions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E7F98D-2972-4D4A-9214-1AA01FAC2EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{06E7F98D-2972-4D4A-9214-1AA01FAC2EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E104A4E-8C53-49FA-88B6-6AF3B20F50DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dis8areas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -382,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,12 +1227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:O117"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,6 +6613,48 @@
         <v>0000000001</v>
       </c>
     </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f>SUM(B2:B117)</f>
+        <v>62</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:K118" si="5">SUM(C2:C117)</f>
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
